--- a/admin/files/Tecnico/Formatos/FO-TC-01 - LISTA DE CHEQUEO DE PRUEBA SEMANAL RED CONTRA INCENDIO V1.xlsx
+++ b/admin/files/Tecnico/Formatos/FO-TC-01 - LISTA DE CHEQUEO DE PRUEBA SEMANAL RED CONTRA INCENDIO V1.xlsx
@@ -1707,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
